--- a/Jogos_do_Dia/2023-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>League</t>
   </si>
@@ -133,6 +133,9 @@
     <t>Turkey 1. Lig</t>
   </si>
   <si>
+    <t>Greece Super League 2</t>
+  </si>
+  <si>
     <t>Slovenia 2. SNL</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>Bandırmaspor</t>
   </si>
   <si>
+    <t>Irodotos</t>
+  </si>
+  <si>
     <t>Gençlerbirliği</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
   </si>
   <si>
     <t>BB Bodrumspor</t>
+  </si>
+  <si>
+    <t>AEK Athens II</t>
   </si>
   <si>
     <t>Adanaspor</t>
@@ -615,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,37 +745,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G2">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="H2">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M2">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="O2">
         <v>1.32</v>
@@ -775,19 +784,19 @@
         <v>3.09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V2">
         <v>3</v>
@@ -840,58 +849,58 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V3">
         <v>3</v>
@@ -944,19 +953,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="G4">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>1.1</v>
@@ -965,10 +974,10 @@
         <v>5.8</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="L4">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M4">
         <v>2.43</v>
@@ -1031,7 +1040,7 @@
         <v>2.4</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1048,19 +1057,19 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="G5">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
         <v>1.09</v>
@@ -1069,16 +1078,16 @@
         <v>6.5</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="L5">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="O5">
         <v>1.56</v>
@@ -1126,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE5">
         <v>1.43</v>
@@ -1152,19 +1161,19 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I6">
         <v>1.07</v>
@@ -1182,7 +1191,7 @@
         <v>2.35</v>
       </c>
       <c r="N6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
         <v>1.44</v>
@@ -1221,13 +1230,13 @@
         <v>2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD6">
         <v>1.5</v>
@@ -1239,7 +1248,7 @@
         <v>2.38</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1256,19 +1265,19 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="G7">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="H7">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1283,10 +1292,10 @@
         <v>3.65</v>
       </c>
       <c r="M7">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="N7">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="O7">
         <v>1.35</v>
@@ -1325,13 +1334,13 @@
         <v>2.8</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD7">
         <v>1.61</v>
@@ -1340,10 +1349,10 @@
         <v>2.01</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1351,28 +1360,28 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
-        <v>45014.41666666666</v>
+        <v>45014.33333333334</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1387,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1414,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="X8">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="Y8">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="Z8">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1464,73 +1473,73 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>2.08</v>
+        <v>0.62</v>
       </c>
       <c r="W9">
-        <v>1.62</v>
+        <v>0.62</v>
       </c>
       <c r="X9">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="Y9">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="Z9">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1559,82 +1568,82 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
-        <v>45014.45833333334</v>
+        <v>45014.41666666666</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V10">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="W10">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="X10">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="Y10">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="Z10">
-        <v>3.72</v>
+        <v>3.01</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1663,28 +1672,28 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
-        <v>45014.54166666666</v>
+        <v>45014.45833333334</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1693,52 +1702,52 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V11">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="W11">
-        <v>0.71</v>
+        <v>2.6</v>
       </c>
       <c r="X11">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="Y11">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="Z11">
-        <v>3.22</v>
+        <v>3.72</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1767,82 +1776,82 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
-        <v>45014.65625</v>
+        <v>45014.54166666666</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>2.23</v>
+        <v>1.58</v>
       </c>
       <c r="W12">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="X12">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="Y12">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="Z12">
-        <v>2.41</v>
+        <v>3.22</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1877,204 +1886,204 @@
         <v>45014.65625</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13">
-        <v>4.9</v>
+        <v>1.95</v>
       </c>
       <c r="G13">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H13">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="N13">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="O13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P13">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="Q13">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="T13">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="U13">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.39</v>
+        <v>2.23</v>
       </c>
       <c r="W13">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="X13">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="Y13">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="Z13">
-        <v>2.98</v>
+        <v>2.41</v>
       </c>
       <c r="AA13">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
-        <v>45014.70833333334</v>
+        <v>45014.65625</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X14">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Y14">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="Z14">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2088,19 +2097,19 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2115,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2142,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="Y15">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Z15">
-        <v>2.59</v>
+        <v>2.85</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2183,82 +2192,82 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
-        <v>45014.79166666666</v>
+        <v>45014.70833333334</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="Y16">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="Z16">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2293,76 +2302,76 @@
         <v>45014.79166666666</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V17">
-        <v>1.86</v>
+        <v>0.25</v>
       </c>
       <c r="W17">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="Y17">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Z17">
-        <v>2.83</v>
+        <v>2.57</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2391,28 +2400,28 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>45014.875</v>
+        <v>45014.79166666666</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>1.73</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2421,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2454,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="X18">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="Y18">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="Z18">
-        <v>2.19</v>
+        <v>2.83</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2495,19 +2504,19 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>45014.875</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2558,42 +2567,146 @@
         <v>0</v>
       </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1.1</v>
+      </c>
+      <c r="Y19">
+        <v>1.09</v>
+      </c>
+      <c r="Z19">
+        <v>2.19</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45014.875</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>3.14</v>
+      </c>
+      <c r="G20">
+        <v>2.65</v>
+      </c>
+      <c r="H20">
+        <v>2.62</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>1.86</v>
       </c>
-      <c r="W19">
+      <c r="W20">
         <v>1.64</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <v>1.62</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <v>1.57</v>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <v>3.19</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -754,10 +754,10 @@
         <v>2.3</v>
       </c>
       <c r="G2">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="H2">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
         <v>1.01</v>
@@ -772,10 +772,10 @@
         <v>3.8</v>
       </c>
       <c r="M2">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="N2">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O2">
         <v>1.32</v>
@@ -799,10 +799,10 @@
         <v>1.47</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X2">
         <v>1.29</v>
@@ -855,10 +855,10 @@
         <v>65</v>
       </c>
       <c r="F3">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="G3">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="H3">
         <v>3.4</v>
@@ -870,16 +870,16 @@
         <v>6.9</v>
       </c>
       <c r="K3">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="L3">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M3">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N3">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="O3">
         <v>1.54</v>
@@ -888,10 +888,10 @@
         <v>2.32</v>
       </c>
       <c r="Q3">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R3">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3">
         <v>1.28</v>
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>45013.92708333334</v>
+        <v>45013.88541666666</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -959,13 +959,13 @@
         <v>66</v>
       </c>
       <c r="F4">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G4">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>1.1</v>
@@ -974,16 +974,16 @@
         <v>5.8</v>
       </c>
       <c r="K4">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="M4">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
         <v>1.54</v>
@@ -1007,10 +1007,10 @@
         <v>2.05</v>
       </c>
       <c r="V4">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X4">
         <v>1.64</v>
@@ -1063,13 +1063,13 @@
         <v>67</v>
       </c>
       <c r="F5">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G5">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I5">
         <v>1.09</v>
@@ -1084,10 +1084,10 @@
         <v>2.4</v>
       </c>
       <c r="M5">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="O5">
         <v>1.56</v>
@@ -1111,10 +1111,10 @@
         <v>1.62</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X5">
         <v>1.92</v>
@@ -1126,13 +1126,13 @@
         <v>3.46</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AD5">
         <v>1.19</v>
@@ -1167,13 +1167,13 @@
         <v>68</v>
       </c>
       <c r="F6">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G6">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
         <v>1.07</v>
@@ -1188,10 +1188,10 @@
         <v>2.5</v>
       </c>
       <c r="M6">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O6">
         <v>1.44</v>
@@ -1215,7 +1215,7 @@
         <v>1.6</v>
       </c>
       <c r="V6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>69</v>
       </c>
       <c r="F7">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="H7">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1292,10 +1292,10 @@
         <v>3.65</v>
       </c>
       <c r="M7">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N7">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="O7">
         <v>1.35</v>
@@ -1319,10 +1319,10 @@
         <v>1.35</v>
       </c>
       <c r="V7">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="W7">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="X7">
         <v>1.45</v>
@@ -1375,13 +1375,13 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="N8">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="X8">
         <v>1.31</v>
@@ -1479,13 +1479,13 @@
         <v>71</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>72</v>
       </c>
       <c r="F10">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G10">
+        <v>3.4</v>
+      </c>
+      <c r="H10">
         <v>3.6</v>
-      </c>
-      <c r="H10">
-        <v>3.78</v>
       </c>
       <c r="I10">
         <v>1.01</v>
@@ -1604,10 +1604,10 @@
         <v>3.34</v>
       </c>
       <c r="M10">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="N10">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="O10">
         <v>1.38</v>
@@ -1631,10 +1631,10 @@
         <v>1.92</v>
       </c>
       <c r="V10">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="W10">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>1.59</v>
@@ -1646,28 +1646,28 @@
         <v>3.01</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1687,19 +1687,19 @@
         <v>73</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="G11">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H11">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K11">
         <v>1.18</v>
@@ -1708,10 +1708,10 @@
         <v>3.8</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
         <v>1.34</v>
@@ -1720,10 +1720,10 @@
         <v>3.01</v>
       </c>
       <c r="Q11">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R11">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S11">
         <v>1.66</v>
@@ -1735,10 +1735,10 @@
         <v>1.26</v>
       </c>
       <c r="V11">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W11">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="X11">
         <v>1.8</v>
@@ -1898,10 +1898,10 @@
         <v>1.95</v>
       </c>
       <c r="G13">
+        <v>3.4</v>
+      </c>
+      <c r="H13">
         <v>3.45</v>
-      </c>
-      <c r="H13">
-        <v>3.2</v>
       </c>
       <c r="I13">
         <v>1.03</v>
@@ -1916,10 +1916,10 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="N13">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="O13">
         <v>1.33</v>
@@ -1958,28 +1958,28 @@
         <v>2.41</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1999,13 +1999,13 @@
         <v>76</v>
       </c>
       <c r="F14">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="G14">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="I14">
         <v>1.04</v>
@@ -2020,10 +2020,10 @@
         <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="N14">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="O14">
         <v>1.38</v>
@@ -2103,52 +2103,52 @@
         <v>77</v>
       </c>
       <c r="F15">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G15">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="M15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -2207,52 +2207,52 @@
         <v>78</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V16">
         <v>3</v>
@@ -2311,13 +2311,13 @@
         <v>79</v>
       </c>
       <c r="F17">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="G17">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="H17">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2326,16 +2326,16 @@
         <v>7.2</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="M17">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N17">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O17">
         <v>1.48</v>
@@ -2374,22 +2374,22 @@
         <v>2.57</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2415,25 +2415,25 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H18">
-        <v>3.84</v>
+        <v>4.4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="L18">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="M18">
         <v>2.44</v>
@@ -2442,25 +2442,25 @@
         <v>1.45</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
         <v>1.86</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2519,52 +2519,52 @@
         <v>81</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2623,52 +2623,52 @@
         <v>82</v>
       </c>
       <c r="F20">
-        <v>3.14</v>
+        <v>2.45</v>
       </c>
       <c r="G20">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H20">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V20">
         <v>1.86</v>
@@ -2698,16 +2698,16 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
